--- a/Rule/AssetValidation.xlsx
+++ b/Rule/AssetValidation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\downloadChrome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-Sprint17\Rule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="MinManufYear" sheetId="1" r:id="rId1"/>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
